--- a/app接口/甬派.xlsx
+++ b/app接口/甬派.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542526CF-4C90-43DE-A706-FC387D7E09E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC42B3AF-0E81-4C61-A9C9-BCD8B6FAB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="板块刷新页" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,18 +109,23 @@
     <t>User-Agent</t>
   </si>
   <si>
+    <t>http://ypapp.cnnb.com.cn/yongpai-news/api/news/detail?newsId=60e647a8e4b0dcda40dc56a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>okhttp/3.10.0</t>
-  </si>
-  <si>
-    <t>http://ypapp.cnnb.com.cn/yongpai-news/api/news/detail?newsId=60e647a8e4b0dcda40dc56a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情页id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User-Agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,22 +225,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,140 +526,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10" max="13" width="14.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10">
-        <v>44385</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{75331B4F-1CDC-4D3D-AC0F-F588188A9320}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57299981-03B7-42D3-9D2D-6F3A1E61CA80}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
@@ -718,6 +589,140 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9">
+        <v>44385</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{75331B4F-1CDC-4D3D-AC0F-F588188A9320}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57299981-03B7-42D3-9D2D-6F3A1E61CA80}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="14.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:14" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
@@ -732,22 +737,22 @@
         <v>44385</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
